--- a/biology/Zoologie/Conservatoire_des_races_normandes_et_du_Maine/Conservatoire_des_races_normandes_et_du_Maine.xlsx
+++ b/biology/Zoologie/Conservatoire_des_races_normandes_et_du_Maine/Conservatoire_des_races_normandes_et_du_Maine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Conservatoire des races normandes et du Maine est une association à but non lucratif "loi de 1901".
 </t>
@@ -511,7 +523,9 @@
           <t>Objectif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom l'indique, ce conservatoire a pour vocation de sauvegarder et diffuser le patrimoine génétique des animaux domestiques de la région normande et du Maine (dans l'actuelle région des Pays de la Loire).
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poules
-La caumont
+          <t>Poules</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La caumont
 La poule de Caux
 La cotentine
 La poule de Dampierre
@@ -556,24 +575,194 @@
 La poule Le Mans
 La poule Le Merlérault
 La poule de Pavilly
-Plus leur forme naine
-Canards
-Le canard de Duclair
-Le canard de Rouen
-Dindons
-Le dindon noir de Normandie
-Oies
-L'Oie normande
-L'Oie normande huppée, dite Oie  de Bavent
-Lapins
-Le Blanc de Hotot
+Plus leur forme naine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les races concernées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Canards</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le canard de Duclair
+Le canard de Rouen</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les races concernées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dindons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le dindon noir de Normandie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les races concernées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Oie normande
+L'Oie normande huppée, dite Oie  de Bavent</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les races concernées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Blanc de Hotot
 Le Bélier géant
 Le Grand Russe
 Le Havane français
 Le normand
-Le rex et le castorrex (race à fourrure)
-Pigeons
-Le bizet caennais
+Le rex et le castorrex (race à fourrure)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conservatoire_des_races_normandes_et_du_Maine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les races concernées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pigeons</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le bizet caennais
 Le pigeon cauchois</t>
         </is>
       </c>
